--- a/TestData/Coursera.xlsx
+++ b/TestData/Coursera.xlsx
@@ -17,61 +17,61 @@
     <t>All language name and its count</t>
   </si>
   <si>
-    <t>English (1,644)</t>
-  </si>
-  <si>
-    <t>Spanish (1,100)</t>
-  </si>
-  <si>
-    <t>Arabic (1,011)</t>
-  </si>
-  <si>
-    <t>French (996)</t>
-  </si>
-  <si>
-    <t>Chinese (China) (992)</t>
-  </si>
-  <si>
-    <t>Portuguese (Brazil) (987)</t>
-  </si>
-  <si>
-    <t>German (976)</t>
-  </si>
-  <si>
-    <t>Indonesian (975)</t>
-  </si>
-  <si>
-    <t>Hindi (971)</t>
-  </si>
-  <si>
-    <t>Italian (970)</t>
-  </si>
-  <si>
-    <t>Swedish (969)</t>
-  </si>
-  <si>
-    <t>Dutch (968)</t>
-  </si>
-  <si>
-    <t>Greek (968)</t>
-  </si>
-  <si>
-    <t>Polish (968)</t>
-  </si>
-  <si>
-    <t>Thai (968)</t>
-  </si>
-  <si>
-    <t>Turkish (968)</t>
-  </si>
-  <si>
-    <t>Ukrainian (968)</t>
-  </si>
-  <si>
-    <t>Russian (945)</t>
-  </si>
-  <si>
-    <t>Kazakh (893)</t>
+    <t>English (1,643)</t>
+  </si>
+  <si>
+    <t>Spanish (1,099)</t>
+  </si>
+  <si>
+    <t>Arabic (1,010)</t>
+  </si>
+  <si>
+    <t>French (995)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (991)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (986)</t>
+  </si>
+  <si>
+    <t>German (975)</t>
+  </si>
+  <si>
+    <t>Indonesian (974)</t>
+  </si>
+  <si>
+    <t>Hindi (970)</t>
+  </si>
+  <si>
+    <t>Italian (969)</t>
+  </si>
+  <si>
+    <t>Swedish (968)</t>
+  </si>
+  <si>
+    <t>Dutch (967)</t>
+  </si>
+  <si>
+    <t>Greek (967)</t>
+  </si>
+  <si>
+    <t>Polish (967)</t>
+  </si>
+  <si>
+    <t>Thai (967)</t>
+  </si>
+  <si>
+    <t>Turkish (967)</t>
+  </si>
+  <si>
+    <t>Ukrainian (967)</t>
+  </si>
+  <si>
+    <t>Russian (944)</t>
+  </si>
+  <si>
+    <t>Kazakh (892)</t>
   </si>
   <si>
     <t>Hungarian (696)</t>
@@ -101,7 +101,7 @@
     <t>Advanced (80)</t>
   </si>
   <si>
-    <t>Mixed (148)</t>
+    <t>Mixed (147)</t>
   </si>
 </sst>
 </file>

--- a/TestData/Coursera.xlsx
+++ b/TestData/Coursera.xlsx
@@ -17,72 +17,72 @@
     <t>All language name and its count</t>
   </si>
   <si>
-    <t>English (1,643)</t>
-  </si>
-  <si>
-    <t>Spanish (1,099)</t>
-  </si>
-  <si>
-    <t>Arabic (1,010)</t>
-  </si>
-  <si>
-    <t>French (995)</t>
-  </si>
-  <si>
-    <t>Chinese (China) (991)</t>
-  </si>
-  <si>
-    <t>Portuguese (Brazil) (986)</t>
-  </si>
-  <si>
-    <t>German (975)</t>
-  </si>
-  <si>
-    <t>Indonesian (974)</t>
-  </si>
-  <si>
-    <t>Hindi (970)</t>
-  </si>
-  <si>
-    <t>Italian (969)</t>
-  </si>
-  <si>
-    <t>Swedish (968)</t>
-  </si>
-  <si>
-    <t>Dutch (967)</t>
-  </si>
-  <si>
-    <t>Greek (967)</t>
-  </si>
-  <si>
-    <t>Polish (967)</t>
-  </si>
-  <si>
-    <t>Thai (967)</t>
-  </si>
-  <si>
-    <t>Turkish (967)</t>
-  </si>
-  <si>
-    <t>Ukrainian (967)</t>
-  </si>
-  <si>
-    <t>Russian (944)</t>
-  </si>
-  <si>
-    <t>Kazakh (892)</t>
+    <t>English (1,666)</t>
+  </si>
+  <si>
+    <t>Spanish (1,098)</t>
+  </si>
+  <si>
+    <t>Arabic (1,009)</t>
+  </si>
+  <si>
+    <t>French (994)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (990)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (985)</t>
+  </si>
+  <si>
+    <t>Japanese (978)</t>
+  </si>
+  <si>
+    <t>Korean (976)</t>
+  </si>
+  <si>
+    <t>German (974)</t>
+  </si>
+  <si>
+    <t>Indonesian (973)</t>
+  </si>
+  <si>
+    <t>Hindi (969)</t>
+  </si>
+  <si>
+    <t>Italian (968)</t>
+  </si>
+  <si>
+    <t>Swedish (967)</t>
+  </si>
+  <si>
+    <t>Dutch (966)</t>
+  </si>
+  <si>
+    <t>Greek (966)</t>
+  </si>
+  <si>
+    <t>Polish (966)</t>
+  </si>
+  <si>
+    <t>Thai (966)</t>
+  </si>
+  <si>
+    <t>Turkish (966)</t>
+  </si>
+  <si>
+    <t>Ukrainian (966)</t>
+  </si>
+  <si>
+    <t>Russian (943)</t>
+  </si>
+  <si>
+    <t>Kazakh (894)</t>
   </si>
   <si>
     <t>Hungarian (696)</t>
   </si>
   <si>
-    <t>Japanese (90)</t>
-  </si>
-  <si>
-    <t>Korean (88)</t>
-  </si>
-  <si>
     <t>Chinese (Traditional) (5)</t>
   </si>
   <si>
@@ -92,16 +92,16 @@
     <t>Different level count</t>
   </si>
   <si>
-    <t>Beginner (884)</t>
-  </si>
-  <si>
-    <t>Intermediate (779)</t>
+    <t>Beginner (898)</t>
+  </si>
+  <si>
+    <t>Intermediate (787)</t>
   </si>
   <si>
     <t>Advanced (80)</t>
   </si>
   <si>
-    <t>Mixed (147)</t>
+    <t>Mixed (148)</t>
   </si>
 </sst>
 </file>
